--- a/output/fit_clients/fit_round_416.xlsx
+++ b/output/fit_clients/fit_round_416.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1844868030.943134</v>
+        <v>2250281232.77319</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1142093955692256</v>
+        <v>0.09022220831017491</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03869798349962233</v>
+        <v>0.03009291315203184</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>922433990.2700758</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2100869927.778481</v>
+        <v>2373862657.896751</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1647008326180494</v>
+        <v>0.1409445734018503</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04901076108397938</v>
+        <v>0.0464823328581075</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1050435019.591576</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3583868075.137472</v>
+        <v>5016938265.437677</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1253229868774784</v>
+        <v>0.1257157140897524</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02896285760273138</v>
+        <v>0.03712243199836505</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>150</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1791934022.275732</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3776715506.275448</v>
+        <v>2953972841.236008</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09329235188026774</v>
+        <v>0.076564479883951</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04068108251460721</v>
+        <v>0.04243591329322367</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>153</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1888357771.593973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2265528461.110055</v>
+        <v>2163133005.506864</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1421155727883243</v>
+        <v>0.1265494973755137</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05405917577484374</v>
+        <v>0.04474481971800831</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>78</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1132764231.43183</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2556301384.680583</v>
+        <v>2501409629.408514</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08868618331055943</v>
+        <v>0.07998161581431219</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03731703046988669</v>
+        <v>0.03166954088892855</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>131</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1278150699.9455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2917830320.136864</v>
+        <v>3728461637.318882</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1574000012584346</v>
+        <v>0.1673368337820904</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02352520678899908</v>
+        <v>0.03299565732516272</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>133</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1458915209.194904</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2251598470.741549</v>
+        <v>2078927783.901854</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1707198286178967</v>
+        <v>0.1773259422764336</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03538826581127265</v>
+        <v>0.02843382760567559</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1125799227.095213</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4919937210.49718</v>
+        <v>4983451014.255088</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1783524107067239</v>
+        <v>0.1625644833076706</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04303387115162127</v>
+        <v>0.04017771734721019</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>175</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2459968698.355494</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4113933313.640057</v>
+        <v>2684583877.561385</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1467955107843405</v>
+        <v>0.1776989833820938</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03782572285713061</v>
+        <v>0.0369232211072343</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>172</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2056966677.458556</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2004428324.22152</v>
+        <v>2950782359.321391</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1788079757319632</v>
+        <v>0.1575575293241736</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03248194859536611</v>
+        <v>0.050804263153771</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>141</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1002214088.971346</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4457650758.069828</v>
+        <v>5329263327.716056</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08734839272483363</v>
+        <v>0.09107750809535772</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01968419720099417</v>
+        <v>0.0299335605970859</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>140</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2228825410.734717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3210931070.20626</v>
+        <v>3253006246.497046</v>
       </c>
       <c r="F14" t="n">
-        <v>0.161534679825339</v>
+        <v>0.1237952341876642</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03854638683230145</v>
+        <v>0.03686974386798245</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1605465554.280206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1652458603.065635</v>
+        <v>1186359804.753257</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1016363524894846</v>
+        <v>0.08497534209521396</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03437073452055911</v>
+        <v>0.03754978485366432</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>826229421.6176438</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2853540828.730471</v>
+        <v>2797295690.6296</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1026216020008393</v>
+        <v>0.07940208674691765</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04923065611499315</v>
+        <v>0.03475216422914747</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>84</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1426770413.60791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4106577177.693505</v>
+        <v>3879771325.723431</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1588242436788716</v>
+        <v>0.1569661217224148</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0452776081564403</v>
+        <v>0.04068966083103838</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>122</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2053288618.185369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2925665868.759479</v>
+        <v>2932652768.933732</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1432246579429132</v>
+        <v>0.1810305899726833</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0230196225734946</v>
+        <v>0.02447942249074741</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>136</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1462832970.040581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1281868198.994058</v>
+        <v>1160785095.80134</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1401116834242599</v>
+        <v>0.1852393985910041</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0264892428278724</v>
+        <v>0.01935956440457336</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>640934197.3380696</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2473652411.261398</v>
+        <v>2123939924.692422</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1238014837806168</v>
+        <v>0.1055248210649958</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03173827486762492</v>
+        <v>0.03116511967058789</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>57</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1236826181.55186</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2117148450.80837</v>
+        <v>1917527102.371905</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08907624458829717</v>
+        <v>0.0618386921471093</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03228491846355731</v>
+        <v>0.03193969337013305</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1058574250.166069</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3824007653.996267</v>
+        <v>3828500529.03158</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1303523774248168</v>
+        <v>0.1132392606401846</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04881414740605842</v>
+        <v>0.04402828036145744</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1912003839.204227</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1553563519.436166</v>
+        <v>1264990148.830823</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1726142725526451</v>
+        <v>0.1813035065980009</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03915645165107538</v>
+        <v>0.039340401814175</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>776781736.6437256</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3207508908.485842</v>
+        <v>3499848786.55443</v>
       </c>
       <c r="F24" t="n">
-        <v>0.143465128693905</v>
+        <v>0.09782611434742008</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03398521841825481</v>
+        <v>0.02582452615424276</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>121</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1603754475.54685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>999819255.6773386</v>
+        <v>1081785685.128045</v>
       </c>
       <c r="F25" t="n">
-        <v>0.118308229228734</v>
+        <v>0.08196614045404969</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0215385644650647</v>
+        <v>0.03040393434915336</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>499909691.8980951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1372257803.801624</v>
+        <v>1247915973.195621</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1030255700167057</v>
+        <v>0.1110188794050951</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03471235413900819</v>
+        <v>0.02606337002730449</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>686128965.0823293</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3570572163.987124</v>
+        <v>4687819285.879585</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1397978952243577</v>
+        <v>0.1262858717441676</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02181122002059675</v>
+        <v>0.01795735054393332</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1785286113.479516</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3175893950.210915</v>
+        <v>3727721905.675876</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1484930289524532</v>
+        <v>0.09469379203902234</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04183151926590595</v>
+        <v>0.03904969154906507</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1587947001.605546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5323817611.977635</v>
+        <v>4405839128.012026</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0987450624266521</v>
+        <v>0.09435870103077575</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04346619947536585</v>
+        <v>0.0404927806738224</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>183</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2661908731.132483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2167054041.623366</v>
+        <v>1886204722.855332</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1243661807234505</v>
+        <v>0.1180943623314458</v>
       </c>
       <c r="G30" t="n">
-        <v>0.029118524604541</v>
+        <v>0.0283992246900924</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1083527077.288543</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1234715036.968618</v>
+        <v>1227508034.07012</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06838163933670682</v>
+        <v>0.07676708680800967</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05078757862168584</v>
+        <v>0.03472553797769107</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>617357461.7915169</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1542776617.450513</v>
+        <v>1645911679.340769</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07757160460506579</v>
+        <v>0.1119468403039755</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03295371558272125</v>
+        <v>0.03277799463915895</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>771388385.9621961</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2511264014.694602</v>
+        <v>1914377589.483478</v>
       </c>
       <c r="F33" t="n">
-        <v>0.148064107975475</v>
+        <v>0.1279188123172592</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04552036534783543</v>
+        <v>0.05762231351232403</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>125</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1255632044.635408</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1504906965.199231</v>
+        <v>1153746006.147179</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08166168375899427</v>
+        <v>0.08136202656998867</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0265311577922817</v>
+        <v>0.02671581656064297</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>752453437.6719302</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1208284726.43369</v>
+        <v>938447757.103177</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0793619417285592</v>
+        <v>0.1069181847366268</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03377322044683873</v>
+        <v>0.03007359641054042</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>604142336.1437793</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3070376913.814362</v>
+        <v>2292569264.59019</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1638620792273843</v>
+        <v>0.1719289565864994</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01812126525731313</v>
+        <v>0.02432078972774</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>104</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1535188433.2132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2855386121.770511</v>
+        <v>2020325014.82227</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08637425363380523</v>
+        <v>0.1069071470539809</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04084039752632716</v>
+        <v>0.03969061980651406</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>112</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1427693205.878272</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1955466821.977223</v>
+        <v>2016242028.004208</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1203098724399214</v>
+        <v>0.1026790436473453</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03808822905444185</v>
+        <v>0.03760109152296522</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>977733395.9188162</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1877742820.147132</v>
+        <v>2169442906.285747</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1907725914037024</v>
+        <v>0.172280966235792</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02128381263191811</v>
+        <v>0.02209335887884908</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>938871423.2177532</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1368752040.408609</v>
+        <v>1191510864.30791</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1428393380363665</v>
+        <v>0.1234689017093075</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04091568925364805</v>
+        <v>0.04206276900415096</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>684376019.2786751</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2376435129.789579</v>
+        <v>1923210250.7407</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1134968302441908</v>
+        <v>0.1224486101334868</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04321152844419991</v>
+        <v>0.04607562313183632</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1188217602.287884</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2865414139.015759</v>
+        <v>3248713509.073398</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09040737843261208</v>
+        <v>0.08833039899887106</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03251265950253864</v>
+        <v>0.03950751242281265</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1432707020.704671</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2220191194.469296</v>
+        <v>2041274886.36687</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2030084935840191</v>
+        <v>0.1565125736442151</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01845661629816479</v>
+        <v>0.01650318452211862</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>144</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1110095674.049774</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2011063163.750622</v>
+        <v>1705580686.650252</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08386931929801232</v>
+        <v>0.07199070252273701</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03020062913616679</v>
+        <v>0.03598284609298282</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1005531690.433872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2330482226.142904</v>
+        <v>1709792549.816372</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1695186128510492</v>
+        <v>0.1217065672140484</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04627607691067781</v>
+        <v>0.04474881669007</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1165241137.24857</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4382384372.305375</v>
+        <v>4499887126.698458</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1080045017086268</v>
+        <v>0.1518744053870983</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03767067426347751</v>
+        <v>0.04440311510967165</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>148</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2191192177.604675</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4761113147.505591</v>
+        <v>4129656212.642438</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1671679799385565</v>
+        <v>0.1678030749343409</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05102683428637826</v>
+        <v>0.04596252185216913</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>112</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2380556616.011162</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4172159822.231478</v>
+        <v>4471231577.099026</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08197235207299777</v>
+        <v>0.0940306744699981</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03144884372771795</v>
+        <v>0.03574052188268217</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>138</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2086079935.472893</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1623045708.850559</v>
+        <v>1719221985.815629</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1867002951751265</v>
+        <v>0.1541926031870457</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02862307781849567</v>
+        <v>0.02730437902351623</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>811522867.326434</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3822894292.548026</v>
+        <v>4157511412.555676</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1585031295906372</v>
+        <v>0.1279761438712073</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03579623358417688</v>
+        <v>0.05229914277401535</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>141</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1911447147.564989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1300217868.761588</v>
+        <v>1471092777.838865</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1369772193731428</v>
+        <v>0.1347440197465254</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05332223513790509</v>
+        <v>0.04834390021677711</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>650108969.7115256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3227043044.438452</v>
+        <v>3865719609.254279</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1005446109744835</v>
+        <v>0.08693820135676519</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03825271395471994</v>
+        <v>0.04956259885730722</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>171</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1613521624.202226</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3377908157.366143</v>
+        <v>2830577822.983507</v>
       </c>
       <c r="F53" t="n">
-        <v>0.20157389029346</v>
+        <v>0.1460637182861386</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02194913199633366</v>
+        <v>0.03462509033529074</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>121</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1688954085.073952</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3124451659.794206</v>
+        <v>4904786452.711004</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1146517131746134</v>
+        <v>0.1033761879763382</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04929680531365885</v>
+        <v>0.05189964728849975</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>136</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1562225825.227485</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4988893964.072055</v>
+        <v>3394679807.695644</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2018876855923378</v>
+        <v>0.2107914097304397</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02288475051610353</v>
+        <v>0.03157042876799539</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2494447000.629237</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1183005339.866765</v>
+        <v>1741643134.034218</v>
       </c>
       <c r="F56" t="n">
-        <v>0.110103239386424</v>
+        <v>0.1020334063801372</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05141004119423833</v>
+        <v>0.04470060555746114</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>591502759.1722219</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3754997009.653674</v>
+        <v>3910071522.311452</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1305126304381132</v>
+        <v>0.1800328483424693</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02666658036299119</v>
+        <v>0.02767888875213662</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>132</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1877498572.639168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1636055695.871791</v>
+        <v>1163986589.817577</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1239158640189463</v>
+        <v>0.19640850312763</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02542380398728193</v>
+        <v>0.02539926653861483</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>818027866.6675658</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4197492392.047483</v>
+        <v>4041056763.266354</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09427696618089423</v>
+        <v>0.09470970328303631</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03988230694210614</v>
+        <v>0.03828317921882029</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2098746162.466525</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2595882217.883689</v>
+        <v>3575809721.230348</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1720033757467606</v>
+        <v>0.1462187368892558</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02526329871541318</v>
+        <v>0.02803897009663292</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>128</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1297941136.918996</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3262285422.493971</v>
+        <v>3317423937.829229</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1181008119602558</v>
+        <v>0.173797897106065</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02464944151141981</v>
+        <v>0.02712950001288977</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>142</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1631142666.996078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1808490606.439414</v>
+        <v>2094242668.854373</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1663398655545964</v>
+        <v>0.1451916693443346</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03111207973111397</v>
+        <v>0.03379109403255916</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>904245332.5456643</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5478157982.68074</v>
+        <v>5123851387.592591</v>
       </c>
       <c r="F63" t="n">
-        <v>0.101901988154678</v>
+        <v>0.1019944006674976</v>
       </c>
       <c r="G63" t="n">
-        <v>0.040337021409682</v>
+        <v>0.0457182686084162</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2739078987.809032</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4307578620.501489</v>
+        <v>5115989590.062807</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1573283815284879</v>
+        <v>0.1198534785849629</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0325530998379759</v>
+        <v>0.027679257193919</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>129</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2153789367.764028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3954754099.567818</v>
+        <v>4707334441.105761</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1471841602093444</v>
+        <v>0.1665872491992542</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02775391393087473</v>
+        <v>0.02701679558540903</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>149</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1977377071.086156</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5354603777.93604</v>
+        <v>5340191493.977057</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1006819136040202</v>
+        <v>0.162299673488615</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04563474971782744</v>
+        <v>0.03735390100344331</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>123</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2677301935.181468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2381465301.032475</v>
+        <v>2537761707.664474</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08095326335310847</v>
+        <v>0.08513162670696831</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0456130142246117</v>
+        <v>0.04690749620271468</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>132</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1190732721.169997</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5994528856.196939</v>
+        <v>5944316411.393604</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1069805686361767</v>
+        <v>0.09796692559438223</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04377082871621597</v>
+        <v>0.04636874193944078</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>132</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2997264544.7738</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2067806628.907524</v>
+        <v>1695375542.778209</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1240158401436247</v>
+        <v>0.1458054105427923</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03631000762486388</v>
+        <v>0.0601060536584685</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1033903328.170953</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3476707183.412834</v>
+        <v>3485271467.335921</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0771600343859561</v>
+        <v>0.09173101989010445</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03492046221168522</v>
+        <v>0.0439129649945099</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>119</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1738353599.809194</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4123889827.876764</v>
+        <v>5553382357.364056</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1439115592142845</v>
+        <v>0.1213800229678501</v>
       </c>
       <c r="G71" t="n">
-        <v>0.020850330802655</v>
+        <v>0.02301724514643034</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>151</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2061944954.289586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1829774257.689884</v>
+        <v>2169338172.02711</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07523417044869858</v>
+        <v>0.08237864351756762</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04765899677952936</v>
+        <v>0.03832300660632985</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>914887102.6771351</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2215195626.075068</v>
+        <v>3436368758.304657</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1037641221355868</v>
+        <v>0.07520702226338417</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04164100881910626</v>
+        <v>0.0326602403084353</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>157</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1107597880.905321</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3278281039.045715</v>
+        <v>2752892567.889555</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1609168079659172</v>
+        <v>0.1466348980874407</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03438200872389621</v>
+        <v>0.03047773056701253</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>141</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1639140560.892793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1896960511.927701</v>
+        <v>2269540970.916473</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1480723972389333</v>
+        <v>0.1430996886962421</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03229985782435787</v>
+        <v>0.03194446132544711</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>948480229.8873767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3417377885.199618</v>
+        <v>3655521869.589253</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09615187741180589</v>
+        <v>0.08930788347849351</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03287647626027324</v>
+        <v>0.02608853546604678</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>91</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1708688902.927276</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1944033135.704503</v>
+        <v>2075429507.717824</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1138790727512502</v>
+        <v>0.1850563977632972</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02234896710437333</v>
+        <v>0.02866376013044183</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>972016621.1621612</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3602994568.387289</v>
+        <v>4057579851.269051</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1123914066119426</v>
+        <v>0.112897252312112</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05096865264660758</v>
+        <v>0.04106292292580529</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>144</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1801497278.350065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1436904524.078972</v>
+        <v>1232045379.038493</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1395765563348152</v>
+        <v>0.1686616919028295</v>
       </c>
       <c r="G79" t="n">
-        <v>0.035174664456874</v>
+        <v>0.03329766485375275</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>718452285.2454284</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4668819586.40541</v>
+        <v>5360867260.8692</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07216466088090251</v>
+        <v>0.07703580678126014</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03112638045524263</v>
+        <v>0.02657892138967525</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>93</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2334409825.94471</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4587580040.966048</v>
+        <v>5013077542.479987</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1234239163897401</v>
+        <v>0.09585994247198247</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0216144108178096</v>
+        <v>0.02412279679001205</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2293790005.535371</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4631221687.214145</v>
+        <v>5479247502.202021</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1984882774862838</v>
+        <v>0.1497708821072348</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02425589630035137</v>
+        <v>0.02312635439485498</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>145</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2315610848.166015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1807575238.35199</v>
+        <v>1760418563.329083</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1298602901223277</v>
+        <v>0.1089683369398719</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03481793746527784</v>
+        <v>0.03098856502791397</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>903787580.5221188</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1710288834.93169</v>
+        <v>1968954889.148968</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1032085201023455</v>
+        <v>0.09925044844669276</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04401070129926332</v>
+        <v>0.05056327552741955</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>855144464.9216816</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3533890803.648145</v>
+        <v>2992433358.278838</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1278546604472805</v>
+        <v>0.1290901175141323</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04320532408950739</v>
+        <v>0.04536169824710352</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>157</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1766945520.961195</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2162578215.41435</v>
+        <v>2355037674.352932</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1299589026453001</v>
+        <v>0.1108965995698623</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02610028466420611</v>
+        <v>0.02289819709916562</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1081289157.956396</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>908384690.5844254</v>
+        <v>967170442.9146591</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1282397170001537</v>
+        <v>0.1773169703747557</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0391170495401133</v>
+        <v>0.03301934596685149</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>454192326.1581544</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2628359162.349773</v>
+        <v>2413974452.480271</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1568849180073805</v>
+        <v>0.1638839351474234</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03789624930890254</v>
+        <v>0.03050237801910124</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>165</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1314179574.90352</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3479983459.224944</v>
+        <v>3043963772.169234</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1354826960727899</v>
+        <v>0.1206796258166597</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03150756820242282</v>
+        <v>0.03349345704074679</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>139</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1739991732.566204</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1712217492.557808</v>
+        <v>1765418905.98752</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1152334362489502</v>
+        <v>0.09670253012438576</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04982660502547856</v>
+        <v>0.03518219429782807</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>856108763.8502609</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1377995160.480061</v>
+        <v>1899371748.382935</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1743390241533867</v>
+        <v>0.1906475489271551</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05734503829017394</v>
+        <v>0.04689525624263693</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>688997635.4605734</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2456625435.056531</v>
+        <v>1857700254.9372</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07397906138867404</v>
+        <v>0.08167099998660604</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04538808250549112</v>
+        <v>0.04510875885136547</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>120</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1228312698.208344</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4479743446.827222</v>
+        <v>4934302273.827945</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1098514254804341</v>
+        <v>0.102250702802666</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0378164542321166</v>
+        <v>0.05064585249447055</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2239871693.006952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2399205705.054788</v>
+        <v>1895416828.571157</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1180308141831102</v>
+        <v>0.1333101967378105</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03552735695309731</v>
+        <v>0.04135726501397475</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1199602902.839408</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2936399611.509355</v>
+        <v>2825229804.899969</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08432287526680579</v>
+        <v>0.09816551375951846</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04219377122478158</v>
+        <v>0.04137425787329915</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>102</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1468199810.133028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2026050560.46006</v>
+        <v>2144454536.920107</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09673660368439126</v>
+        <v>0.08712965645214446</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04293518653857367</v>
+        <v>0.03519496598882602</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1013025264.438946</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3678940289.026174</v>
+        <v>3737646057.404962</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1670831530574204</v>
+        <v>0.1162328570116784</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01981348395479852</v>
+        <v>0.02074742684059433</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>134</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1839470175.088571</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3442781487.656797</v>
+        <v>3825753696.273425</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1105079882533159</v>
+        <v>0.113816261819261</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02214030591159016</v>
+        <v>0.0288885535117783</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1721390758.597697</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2300922058.322567</v>
+        <v>2533821908.215018</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1152430637779401</v>
+        <v>0.1024962638410327</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0304360355402231</v>
+        <v>0.02950314644482722</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>130</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1150460964.464651</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3727193778.258384</v>
+        <v>4075034349.902889</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1279697130759591</v>
+        <v>0.108853112912524</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01843983010264057</v>
+        <v>0.02433943764568319</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>130</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1863596938.045881</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2631957336.581049</v>
+        <v>3183484770.425722</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1937100900082038</v>
+        <v>0.1772826325771187</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03774404206317121</v>
+        <v>0.04707915841757591</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>168</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1315978708.730455</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_416.xlsx
+++ b/output/fit_clients/fit_round_416.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2250281232.77319</v>
+        <v>2228890311.760908</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09022220831017491</v>
+        <v>0.101617360541227</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03009291315203184</v>
+        <v>0.03627737065152206</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2373862657.896751</v>
+        <v>2432109963.017057</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1409445734018503</v>
+        <v>0.1153536515903208</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0464823328581075</v>
+        <v>0.03279474795980859</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5016938265.437677</v>
+        <v>4826926908.369422</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1257157140897524</v>
+        <v>0.1203903595724997</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03712243199836505</v>
+        <v>0.0296578189513208</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2953972841.236008</v>
+        <v>2905181134.4375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.076564479883951</v>
+        <v>0.1026255773772163</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04243591329322367</v>
+        <v>0.03231630093964685</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2163133005.506864</v>
+        <v>2397142164.631247</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1265494973755137</v>
+        <v>0.1144827766558648</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04474481971800831</v>
+        <v>0.03713341228863319</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2501409629.408514</v>
+        <v>2467622347.353475</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07998161581431219</v>
+        <v>0.06898801189988556</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03166954088892855</v>
+        <v>0.04716519756051375</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3728461637.318882</v>
+        <v>3787902984.444995</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1673368337820904</v>
+        <v>0.1491865406761023</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03299565732516272</v>
+        <v>0.02997694115926102</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2078927783.901854</v>
+        <v>1889300209.243856</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1773259422764336</v>
+        <v>0.1221985837262562</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02843382760567559</v>
+        <v>0.02792806939980559</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4983451014.255088</v>
+        <v>3876089732.467067</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1625644833076706</v>
+        <v>0.2149473376239738</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04017771734721019</v>
+        <v>0.04342967396703677</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2684583877.561385</v>
+        <v>2848305869.86628</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1776989833820938</v>
+        <v>0.1154345997147944</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0369232211072343</v>
+        <v>0.04994187875642205</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2950782359.321391</v>
+        <v>2766600440.656685</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1575575293241736</v>
+        <v>0.1587137518112476</v>
       </c>
       <c r="G12" t="n">
-        <v>0.050804263153771</v>
+        <v>0.03375688327140867</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5329263327.716056</v>
+        <v>4609764101.374287</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09107750809535772</v>
+        <v>0.09090856998714592</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0299335605970859</v>
+        <v>0.03108203135038526</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3253006246.497046</v>
+        <v>2554469725.52471</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1237952341876642</v>
+        <v>0.160247014119328</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03686974386798245</v>
+        <v>0.02823311898539746</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1186359804.753257</v>
+        <v>1643770907.745474</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08497534209521396</v>
+        <v>0.08313730308748685</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03754978485366432</v>
+        <v>0.04157721391923241</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2797295690.6296</v>
+        <v>2368180590.338232</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07940208674691765</v>
+        <v>0.1013965044479572</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03475216422914747</v>
+        <v>0.04905874854028749</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3879771325.723431</v>
+        <v>4832223855.062769</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1569661217224148</v>
+        <v>0.1138677717769419</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04068966083103838</v>
+        <v>0.04930670178197914</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2932652768.933732</v>
+        <v>3278393545.717501</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1810305899726833</v>
+        <v>0.1305113189786752</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02447942249074741</v>
+        <v>0.03187867278223582</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1160785095.80134</v>
+        <v>1348059406.298633</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1852393985910041</v>
+        <v>0.1420092926867526</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01935956440457336</v>
+        <v>0.02604487471135279</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2123939924.692422</v>
+        <v>1772978361.526863</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1055248210649958</v>
+        <v>0.1420666129539031</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03116511967058789</v>
+        <v>0.02382202030496458</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1917527102.371905</v>
+        <v>2273606358.400044</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0618386921471093</v>
+        <v>0.08639001595016642</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03193969337013305</v>
+        <v>0.02998230842955277</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3828500529.03158</v>
+        <v>3367489945.617569</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1132392606401846</v>
+        <v>0.09646745887449229</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04402828036145744</v>
+        <v>0.05061636503051405</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1264990148.830823</v>
+        <v>955775176.8335443</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1813035065980009</v>
+        <v>0.1505932137823754</v>
       </c>
       <c r="G23" t="n">
-        <v>0.039340401814175</v>
+        <v>0.04689835567857874</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3499848786.55443</v>
+        <v>3759957679.594325</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09782611434742008</v>
+        <v>0.1036725925010015</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02582452615424276</v>
+        <v>0.02299260533696414</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1081785685.128045</v>
+        <v>1469595938.884419</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08196614045404969</v>
+        <v>0.08071491576089979</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03040393434915336</v>
+        <v>0.03066221083918665</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1247915973.195621</v>
+        <v>1297728221.507042</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1110188794050951</v>
+        <v>0.103765126628433</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02606337002730449</v>
+        <v>0.03045989464154825</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4687819285.879585</v>
+        <v>3597588875.6395</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1262858717441676</v>
+        <v>0.1383620555466873</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01795735054393332</v>
+        <v>0.02148865625548359</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3727721905.675876</v>
+        <v>2680332331.003552</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09469379203902234</v>
+        <v>0.1179725740306113</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03904969154906507</v>
+        <v>0.04410950643200601</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4405839128.012026</v>
+        <v>5636357634.203325</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09435870103077575</v>
+        <v>0.09594070403916526</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0404927806738224</v>
+        <v>0.03200818978611287</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1886204722.855332</v>
+        <v>1648724738.822979</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1180943623314458</v>
+        <v>0.1382273142250566</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0283992246900924</v>
+        <v>0.03556583000267594</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1227508034.07012</v>
+        <v>1472267913.6818</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07676708680800967</v>
+        <v>0.0762941667361666</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03472553797769107</v>
+        <v>0.05066928614132802</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1645911679.340769</v>
+        <v>1736589759.677511</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1119468403039755</v>
+        <v>0.09928246643150533</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03277799463915895</v>
+        <v>0.03291312995336929</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1914377589.483478</v>
+        <v>3065158827.098592</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1279188123172592</v>
+        <v>0.1800901876145594</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05762231351232403</v>
+        <v>0.05259404346682234</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1153746006.147179</v>
+        <v>1082052756.271351</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08136202656998867</v>
+        <v>0.1137838423917274</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02671581656064297</v>
+        <v>0.02502425602935825</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>938447757.103177</v>
+        <v>1154927142.995666</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1069181847366268</v>
+        <v>0.07658501575462284</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03007359641054042</v>
+        <v>0.03422549512265412</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2292569264.59019</v>
+        <v>2418679738.897806</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1719289565864994</v>
+        <v>0.114405054493722</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02432078972774</v>
+        <v>0.02355888898181823</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2020325014.82227</v>
+        <v>2759653610.220917</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1069071470539809</v>
+        <v>0.07980857355642952</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03969061980651406</v>
+        <v>0.02654289332091507</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2016242028.004208</v>
+        <v>2075120720.926861</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1026790436473453</v>
+        <v>0.08269679564278402</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03760109152296522</v>
+        <v>0.0369786496816563</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2169442906.285747</v>
+        <v>1976891902.386557</v>
       </c>
       <c r="F39" t="n">
-        <v>0.172280966235792</v>
+        <v>0.1793925789976515</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02209335887884908</v>
+        <v>0.03184061951768321</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1191510864.30791</v>
+        <v>1217020681.904206</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1234689017093075</v>
+        <v>0.1281846347783625</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04206276900415096</v>
+        <v>0.04691174708561071</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1923210250.7407</v>
+        <v>2442486820.584788</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1224486101334868</v>
+        <v>0.1240639904826365</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04607562313183632</v>
+        <v>0.03251747882635127</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3248713509.073398</v>
+        <v>4237925666.789175</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08833039899887106</v>
+        <v>0.1151495606170134</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03950751242281265</v>
+        <v>0.04595988864084406</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2041274886.36687</v>
+        <v>2586647049.091053</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1565125736442151</v>
+        <v>0.2038776361628498</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01650318452211862</v>
+        <v>0.02209650222169536</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1705580686.650252</v>
+        <v>1705398844.376731</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07199070252273701</v>
+        <v>0.08356619760102249</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03598284609298282</v>
+        <v>0.03002925152190985</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1709792549.816372</v>
+        <v>1889080982.410809</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1217065672140484</v>
+        <v>0.1469431517270042</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04474881669007</v>
+        <v>0.04158667075219699</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4499887126.698458</v>
+        <v>5250946096.089235</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1518744053870983</v>
+        <v>0.1143337602368607</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04440311510967165</v>
+        <v>0.03690439345798251</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4129656212.642438</v>
+        <v>3279567068.784416</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1678030749343409</v>
+        <v>0.1661752736720918</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04596252185216913</v>
+        <v>0.05181632865371289</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4471231577.099026</v>
+        <v>3200158766.482183</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0940306744699981</v>
+        <v>0.1046953251421331</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03574052188268217</v>
+        <v>0.03282254547778369</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1719221985.815629</v>
+        <v>1836943977.797447</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1541926031870457</v>
+        <v>0.1272899442623799</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02730437902351623</v>
+        <v>0.02833132001633305</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4157511412.555676</v>
+        <v>3999146213.104507</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1279761438712073</v>
+        <v>0.133027136656094</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05229914277401535</v>
+        <v>0.03999467008026091</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1471092777.838865</v>
+        <v>1443039971.721394</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1347440197465254</v>
+        <v>0.1199785626524524</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04834390021677711</v>
+        <v>0.0371181048631371</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3865719609.254279</v>
+        <v>5173472539.435117</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08693820135676519</v>
+        <v>0.1187985276147912</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04956259885730722</v>
+        <v>0.0440123718089725</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2830577822.983507</v>
+        <v>2441595076.763033</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1460637182861386</v>
+        <v>0.1622822008816729</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03462509033529074</v>
+        <v>0.03307977893911047</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4904786452.711004</v>
+        <v>3961913396.737174</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1033761879763382</v>
+        <v>0.1105392627165037</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05189964728849975</v>
+        <v>0.04796704189996315</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3394679807.695644</v>
+        <v>4691168661.157023</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2107914097304397</v>
+        <v>0.2144095171847279</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03157042876799539</v>
+        <v>0.02939161684491329</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1741643134.034218</v>
+        <v>1229859686.355384</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1020334063801372</v>
+        <v>0.1498892636007909</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04470060555746114</v>
+        <v>0.0409616735857723</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3910071522.311452</v>
+        <v>3969880370.940309</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1800328483424693</v>
+        <v>0.1125400149350508</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02767888875213662</v>
+        <v>0.02193111570552498</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1163986589.817577</v>
+        <v>1716691326.299472</v>
       </c>
       <c r="F58" t="n">
-        <v>0.19640850312763</v>
+        <v>0.190682789389232</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02539926653861483</v>
+        <v>0.0318736755573908</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4041056763.266354</v>
+        <v>3431748420.005889</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09470970328303631</v>
+        <v>0.09439746536216358</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03828317921882029</v>
+        <v>0.03604194409492272</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3575809721.230348</v>
+        <v>3472316402.911905</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1462187368892558</v>
+        <v>0.1683067034468983</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02803897009663292</v>
+        <v>0.02056642221571442</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3317423937.829229</v>
+        <v>2951593395.08697</v>
       </c>
       <c r="F61" t="n">
-        <v>0.173797897106065</v>
+        <v>0.1437203229105054</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02712950001288977</v>
+        <v>0.0226421054673845</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2094242668.854373</v>
+        <v>1342383197.878658</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1451916693443346</v>
+        <v>0.1298764524946249</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03379109403255916</v>
+        <v>0.04217430917233047</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5123851387.592591</v>
+        <v>3606432856.414546</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1019944006674976</v>
+        <v>0.08700361100757995</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0457182686084162</v>
+        <v>0.03843697035569028</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5115989590.062807</v>
+        <v>3511676559.957382</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1198534785849629</v>
+        <v>0.1726558555119728</v>
       </c>
       <c r="G64" t="n">
-        <v>0.027679257193919</v>
+        <v>0.02689024875845154</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4707334441.105761</v>
+        <v>4313853601.9484</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1665872491992542</v>
+        <v>0.1133005703122873</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02701679558540903</v>
+        <v>0.03088184595363361</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5340191493.977057</v>
+        <v>5711395938.323394</v>
       </c>
       <c r="F66" t="n">
-        <v>0.162299673488615</v>
+        <v>0.1595591845144576</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03735390100344331</v>
+        <v>0.04550987388479173</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2537761707.664474</v>
+        <v>2358871158.955818</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08513162670696831</v>
+        <v>0.09222425755949092</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04690749620271468</v>
+        <v>0.03631632700300584</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5944316411.393604</v>
+        <v>5749625779.09493</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09796692559438223</v>
+        <v>0.1598987387633987</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04636874193944078</v>
+        <v>0.0501136369881964</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1695375542.778209</v>
+        <v>1940808484.563637</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1458054105427923</v>
+        <v>0.1358411738127677</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0601060536584685</v>
+        <v>0.05228459173650786</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3485271467.335921</v>
+        <v>3501602701.661355</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09173101989010445</v>
+        <v>0.0899225763302524</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0439129649945099</v>
+        <v>0.04509258390057659</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5553382357.364056</v>
+        <v>4165237612.977787</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1213800229678501</v>
+        <v>0.1267938801078321</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02301724514643034</v>
+        <v>0.03148087490021832</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2169338172.02711</v>
+        <v>1497517862.654897</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08237864351756762</v>
+        <v>0.1085926227295895</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03832300660632985</v>
+        <v>0.04180751511888096</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3436368758.304657</v>
+        <v>2193600359.664197</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07520702226338417</v>
+        <v>0.06970286391785969</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0326602403084353</v>
+        <v>0.04957552154898526</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2752892567.889555</v>
+        <v>2519662335.015186</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1466348980874407</v>
+        <v>0.1168816366524368</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03047773056701253</v>
+        <v>0.03309895451030778</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2269540970.916473</v>
+        <v>1773458906.6734</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1430996886962421</v>
+        <v>0.1142660585678921</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03194446132544711</v>
+        <v>0.03746577358944645</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3655521869.589253</v>
+        <v>5130184035.003319</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08930788347849351</v>
+        <v>0.1015225712982303</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02608853546604678</v>
+        <v>0.03392433564285791</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2075429507.717824</v>
+        <v>2086468123.002834</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1850563977632972</v>
+        <v>0.1746752067360834</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02866376013044183</v>
+        <v>0.02204597997905844</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4057579851.269051</v>
+        <v>3944875486.06055</v>
       </c>
       <c r="F78" t="n">
-        <v>0.112897252312112</v>
+        <v>0.1296685327989213</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04106292292580529</v>
+        <v>0.04359591102736197</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1232045379.038493</v>
+        <v>1248919112.326459</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1686616919028295</v>
+        <v>0.1438981375755323</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03329766485375275</v>
+        <v>0.03876208421800408</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5360867260.8692</v>
+        <v>5306364139.371838</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07703580678126014</v>
+        <v>0.1067461678618724</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02657892138967525</v>
+        <v>0.02388497847098995</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5013077542.479987</v>
+        <v>3344939199.417295</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09585994247198247</v>
+        <v>0.08598027421609862</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02412279679001205</v>
+        <v>0.0301461024481519</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5479247502.202021</v>
+        <v>3540658185.041679</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1497708821072348</v>
+        <v>0.141394657419799</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02312635439485498</v>
+        <v>0.01914245932152021</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1760418563.329083</v>
+        <v>1581892455.487584</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1089683369398719</v>
+        <v>0.1302948316091047</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03098856502791397</v>
+        <v>0.04321422183516888</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1968954889.148968</v>
+        <v>2387949499.884337</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09925044844669276</v>
+        <v>0.07363876174088425</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05056327552741955</v>
+        <v>0.036526435735278</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2992433358.278838</v>
+        <v>2362109195.894741</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1290901175141323</v>
+        <v>0.1201432495683464</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04536169824710352</v>
+        <v>0.03475605132820982</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2355037674.352932</v>
+        <v>2058730237.275744</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1108965995698623</v>
+        <v>0.1626624131292156</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02289819709916562</v>
+        <v>0.01836268995519696</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>967170442.9146591</v>
+        <v>1355129863.479197</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1773169703747557</v>
+        <v>0.1831715233262915</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03301934596685149</v>
+        <v>0.03701301334757786</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2413974452.480271</v>
+        <v>2872348800.695442</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1638839351474234</v>
+        <v>0.1217275424413335</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03050237801910124</v>
+        <v>0.027890701489481</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3043963772.169234</v>
+        <v>2758484413.994807</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1206796258166597</v>
+        <v>0.1523119257900033</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03349345704074679</v>
+        <v>0.02908313328980645</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1765418905.98752</v>
+        <v>1731342638.354849</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09670253012438576</v>
+        <v>0.1314578254877448</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03518219429782807</v>
+        <v>0.03499284092742112</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1899371748.382935</v>
+        <v>2054224601.322105</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1906475489271551</v>
+        <v>0.1690479244073573</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04689525624263693</v>
+        <v>0.04145013033654078</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1857700254.9372</v>
+        <v>2645801162.666604</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08167099998660604</v>
+        <v>0.1092934668080788</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04510875885136547</v>
+        <v>0.04390275410159225</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4934302273.827945</v>
+        <v>4757724654.838109</v>
       </c>
       <c r="F93" t="n">
-        <v>0.102250702802666</v>
+        <v>0.1294774915459231</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05064585249447055</v>
+        <v>0.03802607653997982</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1895416828.571157</v>
+        <v>2501413351.401506</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1333101967378105</v>
+        <v>0.1217954623684641</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04135726501397475</v>
+        <v>0.04257211533045874</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2825229804.899969</v>
+        <v>2637467294.983706</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09816551375951846</v>
+        <v>0.1305490396713638</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04137425787329915</v>
+        <v>0.03418097494194501</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2144454536.920107</v>
+        <v>1702715550.394794</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08712965645214446</v>
+        <v>0.08762805008110026</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03519496598882602</v>
+        <v>0.04726213660504537</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3737646057.404962</v>
+        <v>4719480593.423066</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1162328570116784</v>
+        <v>0.1247433753589402</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02074742684059433</v>
+        <v>0.0192625392958547</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3825753696.273425</v>
+        <v>2777173481.343214</v>
       </c>
       <c r="F98" t="n">
-        <v>0.113816261819261</v>
+        <v>0.1246457483946963</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0288885535117783</v>
+        <v>0.02562617264932111</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2533821908.215018</v>
+        <v>2438630695.896915</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1024962638410327</v>
+        <v>0.1281005197147731</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02950314644482722</v>
+        <v>0.02780751600797699</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4075034349.902889</v>
+        <v>3136705926.706307</v>
       </c>
       <c r="F100" t="n">
-        <v>0.108853112912524</v>
+        <v>0.1090209022657349</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02433943764568319</v>
+        <v>0.01953317015267068</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3183484770.425722</v>
+        <v>2901638224.128023</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1772826325771187</v>
+        <v>0.2031698055998046</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04707915841757591</v>
+        <v>0.05198801669915608</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_416.xlsx
+++ b/output/fit_clients/fit_round_416.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2228890311.760908</v>
+        <v>2392083121.578508</v>
       </c>
       <c r="F2" t="n">
-        <v>0.101617360541227</v>
+        <v>0.08894480500763227</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03627737065152206</v>
+        <v>0.02737646036670024</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2432109963.017057</v>
+        <v>2538363623.767592</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1153536515903208</v>
+        <v>0.1605420927161695</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03279474795980859</v>
+        <v>0.04621368395249706</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4826926908.369422</v>
+        <v>3806162325.457089</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1203903595724997</v>
+        <v>0.1027564417265221</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0296578189513208</v>
+        <v>0.03783450048017673</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>210</v>
+      </c>
+      <c r="J4" t="n">
+        <v>416</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2905181134.4375</v>
+        <v>3297107978.549105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1026255773772163</v>
+        <v>0.09681440143354064</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03231630093964685</v>
+        <v>0.03655301077627224</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>173</v>
+      </c>
+      <c r="J5" t="n">
+        <v>415</v>
+      </c>
+      <c r="K5" t="n">
+        <v>41.29597605362488</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2397142164.631247</v>
+        <v>2382565759.292352</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1144827766558648</v>
+        <v>0.1193930092322632</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03713341228863319</v>
+        <v>0.04014434306001971</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2467622347.353475</v>
+        <v>2246119346.344919</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06898801189988556</v>
+        <v>0.07795656583070207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04716519756051375</v>
+        <v>0.03422240686741611</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3787902984.444995</v>
+        <v>2509439355.68986</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1491865406761023</v>
+        <v>0.1541138066887036</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02997694115926102</v>
+        <v>0.02089274965159546</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>113</v>
+      </c>
+      <c r="J8" t="n">
+        <v>412</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1889300209.243856</v>
+        <v>1912320726.974173</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1221985837262562</v>
+        <v>0.1307770703805809</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02792806939980559</v>
+        <v>0.034244853386656</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3876089732.467067</v>
+        <v>4719318345.035033</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2149473376239738</v>
+        <v>0.1481160540191239</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04342967396703677</v>
+        <v>0.05446483618290281</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>333</v>
+      </c>
+      <c r="J10" t="n">
+        <v>415</v>
+      </c>
+      <c r="K10" t="n">
+        <v>39.97252710855074</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2848305869.86628</v>
+        <v>2801030511.2586</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1154345997147944</v>
+        <v>0.1915954662731313</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04994187875642205</v>
+        <v>0.04721392359353745</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>172</v>
+      </c>
+      <c r="J11" t="n">
+        <v>411</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2766600440.656685</v>
+        <v>2133620432.926591</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1587137518112476</v>
+        <v>0.1883551713031912</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03375688327140867</v>
+        <v>0.04593695024218252</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4609764101.374287</v>
+        <v>3617808395.08287</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09090856998714592</v>
+        <v>0.09831028606913764</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03108203135038526</v>
+        <v>0.02834045796509814</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>217</v>
+      </c>
+      <c r="J13" t="n">
+        <v>415</v>
+      </c>
+      <c r="K13" t="n">
+        <v>40.26631036903216</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2554469725.52471</v>
+        <v>2434655969.688876</v>
       </c>
       <c r="F14" t="n">
-        <v>0.160247014119328</v>
+        <v>0.1204942140964782</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02823311898539746</v>
+        <v>0.0428373930560262</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>85</v>
+      </c>
+      <c r="J14" t="n">
+        <v>414</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1643770907.745474</v>
+        <v>1812957813.102181</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08313730308748685</v>
+        <v>0.06710168051616403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04157721391923241</v>
+        <v>0.03292761826894554</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2368180590.338232</v>
+        <v>2307971025.358007</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1013965044479572</v>
+        <v>0.0978660664426618</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04905874854028749</v>
+        <v>0.04085996568835679</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4832223855.062769</v>
+        <v>4149991630.669703</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1138677717769419</v>
+        <v>0.1704591954905878</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04930670178197914</v>
+        <v>0.03329116663930601</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>201</v>
+      </c>
+      <c r="J17" t="n">
+        <v>416</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3278393545.717501</v>
+        <v>3648965974.740215</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1305113189786752</v>
+        <v>0.1385434884086767</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03187867278223582</v>
+        <v>0.02415529153835275</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>107</v>
+      </c>
+      <c r="J18" t="n">
+        <v>416</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1348059406.298633</v>
+        <v>998016321.4409161</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1420092926867526</v>
+        <v>0.149112511951716</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02604487471135279</v>
+        <v>0.02388188091835075</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1772978361.526863</v>
+        <v>1870975605.730161</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1420666129539031</v>
+        <v>0.1307936331219749</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02382202030496458</v>
+        <v>0.03109162447645893</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2273606358.400044</v>
+        <v>2198471521.850685</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08639001595016642</v>
+        <v>0.07519803151352218</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02998230842955277</v>
+        <v>0.04376329410832962</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3367489945.617569</v>
+        <v>3613164845.925048</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09646745887449229</v>
+        <v>0.1327416633106362</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05061636503051405</v>
+        <v>0.04093035216358516</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>116</v>
+      </c>
+      <c r="J22" t="n">
+        <v>416</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>955775176.8335443</v>
+        <v>1070896974.075863</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1505932137823754</v>
+        <v>0.1327777101314525</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04689835567857874</v>
+        <v>0.03459985845128662</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3759957679.594325</v>
+        <v>3502012231.964648</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1036725925010015</v>
+        <v>0.09428911161257285</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02299260533696414</v>
+        <v>0.03202216693048204</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>131</v>
+      </c>
+      <c r="J24" t="n">
+        <v>415</v>
+      </c>
+      <c r="K24" t="n">
+        <v>43.28235970093811</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1469595938.884419</v>
+        <v>1417364461.962422</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08071491576089979</v>
+        <v>0.1158620698481288</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03066221083918665</v>
+        <v>0.02839445962795527</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1297728221.507042</v>
+        <v>1431654158.372569</v>
       </c>
       <c r="F26" t="n">
-        <v>0.103765126628433</v>
+        <v>0.08284848917265795</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03045989464154825</v>
+        <v>0.03701311077100405</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3597588875.6395</v>
+        <v>4274758044.087841</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1383620555466873</v>
+        <v>0.1255623043847695</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02148865625548359</v>
+        <v>0.02401428296926022</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>176</v>
+      </c>
+      <c r="J27" t="n">
+        <v>416</v>
+      </c>
+      <c r="K27" t="n">
+        <v>46.61499585337195</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2680332331.003552</v>
+        <v>2640461701.454443</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1179725740306113</v>
+        <v>0.1065575527311648</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04410950643200601</v>
+        <v>0.04010722907567168</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>103</v>
+      </c>
+      <c r="J28" t="n">
+        <v>415</v>
+      </c>
+      <c r="K28" t="n">
+        <v>30.04289308022333</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5636357634.203325</v>
+        <v>4581711049.196817</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09594070403916526</v>
+        <v>0.1512688781191148</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03200818978611287</v>
+        <v>0.0465469776726734</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>348</v>
+      </c>
+      <c r="J29" t="n">
+        <v>415</v>
+      </c>
+      <c r="K29" t="n">
+        <v>42.25530383636977</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1648724738.822979</v>
+        <v>2070324793.903624</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1382273142250566</v>
+        <v>0.1366313423969534</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03556583000267594</v>
+        <v>0.02539924990422992</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1472267913.6818</v>
+        <v>996166539.8542231</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0762941667361666</v>
+        <v>0.102756351660158</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05066928614132802</v>
+        <v>0.03577515823417681</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1736589759.677511</v>
+        <v>1758033678.965211</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09928246643150533</v>
+        <v>0.08542246096272581</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03291312995336929</v>
+        <v>0.03400078915935923</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3065158827.098592</v>
+        <v>2402831817.584248</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1800901876145594</v>
+        <v>0.2086761486468839</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05259404346682234</v>
+        <v>0.04782662685044121</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1082052756.271351</v>
+        <v>1223287453.570622</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1137838423917274</v>
+        <v>0.08033563637325476</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02502425602935825</v>
+        <v>0.02184733831519499</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1154927142.995666</v>
+        <v>1318810658.785814</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07658501575462284</v>
+        <v>0.09752378959939746</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03422549512265412</v>
+        <v>0.03712294399729958</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2418679738.897806</v>
+        <v>2875807357.013402</v>
       </c>
       <c r="F36" t="n">
-        <v>0.114405054493722</v>
+        <v>0.1740650203452127</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02355888898181823</v>
+        <v>0.02112821238825421</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2759653610.220917</v>
+        <v>2894452528.891425</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07980857355642952</v>
+        <v>0.08115189727659772</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02654289332091507</v>
+        <v>0.03456915588086965</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2075120720.926861</v>
+        <v>2153123077.918818</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08269679564278402</v>
+        <v>0.07863378721254295</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0369786496816563</v>
+        <v>0.03593927136581856</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1976891902.386557</v>
+        <v>2184023074.472178</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1793925789976515</v>
+        <v>0.1771626360748342</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03184061951768321</v>
+        <v>0.02530182302852449</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1217020681.904206</v>
+        <v>1780849968.806284</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1281846347783625</v>
+        <v>0.1174640071305267</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04691174708561071</v>
+        <v>0.060340518013568</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2442486820.584788</v>
+        <v>2652023346.953658</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1240639904826365</v>
+        <v>0.1347029347991972</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03251747882635127</v>
+        <v>0.04128817215702547</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4237925666.789175</v>
+        <v>4253971174.093082</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1151495606170134</v>
+        <v>0.1169277006310711</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04595988864084406</v>
+        <v>0.03362984088348389</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>178</v>
+      </c>
+      <c r="J42" t="n">
+        <v>416</v>
+      </c>
+      <c r="K42" t="n">
+        <v>54.61692284939806</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2586647049.091053</v>
+        <v>2804830796.763731</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2038776361628498</v>
+        <v>0.1410183503447475</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02209650222169536</v>
+        <v>0.02308646808116991</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1705398844.376731</v>
+        <v>1684873804.406806</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08356619760102249</v>
+        <v>0.08126891161627216</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03002925152190985</v>
+        <v>0.02782998516428787</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1889080982.410809</v>
+        <v>1925674591.212592</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1469431517270042</v>
+        <v>0.1519771465190767</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04158667075219699</v>
+        <v>0.0458433409293109</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5250946096.089235</v>
+        <v>3814727559.060607</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1143337602368607</v>
+        <v>0.1274184634708974</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03690439345798251</v>
+        <v>0.05104076805500711</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>249</v>
+      </c>
+      <c r="J46" t="n">
+        <v>416</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3279567068.784416</v>
+        <v>3495733637.134449</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1661752736720918</v>
+        <v>0.1487139336717084</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05181632865371289</v>
+        <v>0.0581168473794895</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>186</v>
+      </c>
+      <c r="J47" t="n">
+        <v>413</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3200158766.482183</v>
+        <v>2944737391.877263</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1046953251421331</v>
+        <v>0.09104371106582138</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03282254547778369</v>
+        <v>0.03341091378236528</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>214</v>
+      </c>
+      <c r="J48" t="n">
+        <v>415</v>
+      </c>
+      <c r="K48" t="n">
+        <v>26.48746280335076</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1836943977.797447</v>
+        <v>1250274766.292709</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1272899442623799</v>
+        <v>0.1601924954285724</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02833132001633305</v>
+        <v>0.03147818516175422</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3999146213.104507</v>
+        <v>2540647486.358617</v>
       </c>
       <c r="F50" t="n">
-        <v>0.133027136656094</v>
+        <v>0.1450147989878407</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03999467008026091</v>
+        <v>0.04292961074150511</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>143</v>
+      </c>
+      <c r="J50" t="n">
+        <v>413</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1443039971.721394</v>
+        <v>1464712732.652414</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1199785626524524</v>
+        <v>0.1266032946853246</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0371181048631371</v>
+        <v>0.04214282560385687</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5173472539.435117</v>
+        <v>5015770700.46003</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1187985276147912</v>
+        <v>0.09602288965567733</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0440123718089725</v>
+        <v>0.04590446546366993</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>240</v>
+      </c>
+      <c r="J52" t="n">
+        <v>416</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2441595076.763033</v>
+        <v>3284069931.424374</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1622822008816729</v>
+        <v>0.1886991857699895</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03307977893911047</v>
+        <v>0.03274483204787821</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>60</v>
+      </c>
+      <c r="J53" t="n">
+        <v>414</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3961913396.737174</v>
+        <v>3204109440.654081</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1105392627165037</v>
+        <v>0.136114952046081</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04796704189996315</v>
+        <v>0.04295519967299837</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>222</v>
+      </c>
+      <c r="J54" t="n">
+        <v>415</v>
+      </c>
+      <c r="K54" t="n">
+        <v>32.54866958136715</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4691168661.157023</v>
+        <v>3584357411.079825</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2144095171847279</v>
+        <v>0.1641174693542786</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02939161684491329</v>
+        <v>0.02105776242944259</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>205</v>
+      </c>
+      <c r="J55" t="n">
+        <v>416</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1229859686.355384</v>
+        <v>1618944671.204963</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1498892636007909</v>
+        <v>0.1271580723023745</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0409616735857723</v>
+        <v>0.05805881775338768</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3969880370.940309</v>
+        <v>3091991339.755552</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1125400149350508</v>
+        <v>0.174047748853241</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02193111570552498</v>
+        <v>0.02560685733635259</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>180</v>
+      </c>
+      <c r="J57" t="n">
+        <v>414</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1716691326.299472</v>
+        <v>1804602265.836443</v>
       </c>
       <c r="F58" t="n">
-        <v>0.190682789389232</v>
+        <v>0.1398806073990804</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0318736755573908</v>
+        <v>0.02523296370917921</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3431748420.005889</v>
+        <v>3678174364.379149</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09439746536216358</v>
+        <v>0.1148262558324638</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03604194409492272</v>
+        <v>0.03137623567515899</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>203</v>
+      </c>
+      <c r="J59" t="n">
+        <v>416</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3472316402.911905</v>
+        <v>2988860835.4096</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1683067034468983</v>
+        <v>0.1749851020711867</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02056642221571442</v>
+        <v>0.02415356867140037</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>78</v>
+      </c>
+      <c r="J60" t="n">
+        <v>416</v>
+      </c>
+      <c r="K60" t="n">
+        <v>46.40975514104348</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2951593395.08697</v>
+        <v>2410546126.859184</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1437203229105054</v>
+        <v>0.1196912522837932</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0226421054673845</v>
+        <v>0.0203735724098627</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1342383197.878658</v>
+        <v>1784149775.522555</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1298764524946249</v>
+        <v>0.1678051842268922</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04217430917233047</v>
+        <v>0.03365358936291193</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2658,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3606432856.414546</v>
+        <v>5090111921.301659</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08700361100757995</v>
+        <v>0.08582724495731998</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03843697035569028</v>
+        <v>0.03785261262120461</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>207</v>
+      </c>
+      <c r="J63" t="n">
+        <v>416</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3511676559.957382</v>
+        <v>5350125584.149544</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1726558555119728</v>
+        <v>0.1447040658001607</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02689024875845154</v>
+        <v>0.02584573882905107</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>208</v>
+      </c>
+      <c r="J64" t="n">
+        <v>416</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4313853601.9484</v>
+        <v>4450034572.304749</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1133005703122873</v>
+        <v>0.1164375020304864</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03088184595363361</v>
+        <v>0.02315094112174254</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>305</v>
+      </c>
+      <c r="J65" t="n">
+        <v>416</v>
+      </c>
+      <c r="K65" t="n">
+        <v>44.26436971476349</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5711395938.323394</v>
+        <v>5411951694.261249</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1595591845144576</v>
+        <v>0.1106856244507792</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04550987388479173</v>
+        <v>0.03904384748939887</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>205</v>
+      </c>
+      <c r="J66" t="n">
+        <v>415</v>
+      </c>
+      <c r="K66" t="n">
+        <v>43.43944409599155</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2358871158.955818</v>
+        <v>2528138072.205187</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09222425755949092</v>
+        <v>0.0805918000353424</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03631632700300584</v>
+        <v>0.03908044848768375</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5749625779.09493</v>
+        <v>4120280718.516624</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1598987387633987</v>
+        <v>0.1271540405400707</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0501136369881964</v>
+        <v>0.04068675304189784</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>227</v>
+      </c>
+      <c r="J68" t="n">
+        <v>415</v>
+      </c>
+      <c r="K68" t="n">
+        <v>42.91477969607632</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1940808484.563637</v>
+        <v>2060203660.499088</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1358411738127677</v>
+        <v>0.1441520234662168</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05228459173650786</v>
+        <v>0.05204642390692037</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3501602701.661355</v>
+        <v>3570092315.151382</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0899225763302524</v>
+        <v>0.08922819585613427</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04509258390057659</v>
+        <v>0.03546629111468592</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>413</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4165237612.977787</v>
+        <v>3576477695.097122</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1267938801078321</v>
+        <v>0.1135497625284212</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03148087490021832</v>
+        <v>0.02115025116901681</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>292</v>
+      </c>
+      <c r="J71" t="n">
+        <v>415</v>
+      </c>
+      <c r="K71" t="n">
+        <v>39.29310833943386</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1497517862.654897</v>
+        <v>1801117080.254027</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1085926227295895</v>
+        <v>0.1049783859137741</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04180751511888096</v>
+        <v>0.03954000217585976</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2193600359.664197</v>
+        <v>2662914927.319871</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06970286391785969</v>
+        <v>0.08355474479738727</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04957552154898526</v>
+        <v>0.03242410247636021</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2519662335.015186</v>
+        <v>3757568572.479764</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1168816366524368</v>
+        <v>0.1478033300087739</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03309895451030778</v>
+        <v>0.0234131409308431</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>117</v>
+      </c>
+      <c r="J74" t="n">
+        <v>416</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1773458906.6734</v>
+        <v>1910360894.190108</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1142660585678921</v>
+        <v>0.1218178971187014</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03746577358944645</v>
+        <v>0.02526891255592997</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5130184035.003319</v>
+        <v>5144391199.798746</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1015225712982303</v>
+        <v>0.1003131296015197</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03392433564285791</v>
+        <v>0.02593079959165384</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>197</v>
+      </c>
+      <c r="J76" t="n">
+        <v>416</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2086468123.002834</v>
+        <v>2083573733.329642</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1746752067360834</v>
+        <v>0.1822755336130669</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02204597997905844</v>
+        <v>0.03020686413707703</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3944875486.06055</v>
+        <v>4633384970.288704</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1296685327989213</v>
+        <v>0.09882136542241594</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04359591102736197</v>
+        <v>0.035633305782582</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>208</v>
+      </c>
+      <c r="J78" t="n">
+        <v>416</v>
+      </c>
+      <c r="K78" t="n">
+        <v>43.8684463639402</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1248919112.326459</v>
+        <v>1359140511.719064</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1438981375755323</v>
+        <v>0.1223757104719975</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03876208421800408</v>
+        <v>0.03922704132501843</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5306364139.371838</v>
+        <v>3699479129.6222</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1067461678618724</v>
+        <v>0.09838335877721348</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02388497847098995</v>
+        <v>0.03292583716793698</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>203</v>
+      </c>
+      <c r="J80" t="n">
+        <v>415</v>
+      </c>
+      <c r="K80" t="n">
+        <v>37.49337599937971</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3344939199.417295</v>
+        <v>3787217870.761339</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08598027421609862</v>
+        <v>0.08404957271516839</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0301461024481519</v>
+        <v>0.03246319661682288</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>193</v>
+      </c>
+      <c r="J81" t="n">
+        <v>415</v>
+      </c>
+      <c r="K81" t="n">
+        <v>42.20314948234738</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3540658185.041679</v>
+        <v>3742977447.617399</v>
       </c>
       <c r="F82" t="n">
-        <v>0.141394657419799</v>
+        <v>0.1481149710039764</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01914245932152021</v>
+        <v>0.02679692582478447</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>282</v>
+      </c>
+      <c r="J82" t="n">
+        <v>416</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1581892455.487584</v>
+        <v>2375311619.080665</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1302948316091047</v>
+        <v>0.1259144745434692</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04321422183516888</v>
+        <v>0.04326719111351694</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2387949499.884337</v>
+        <v>2232552619.556171</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07363876174088425</v>
+        <v>0.09261665360688807</v>
       </c>
       <c r="G84" t="n">
-        <v>0.036526435735278</v>
+        <v>0.04665182038547746</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2362109195.894741</v>
+        <v>2511760437.345637</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1201432495683464</v>
+        <v>0.115175295453312</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03475605132820982</v>
+        <v>0.04015460056735649</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2058730237.275744</v>
+        <v>1732432401.358362</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1626624131292156</v>
+        <v>0.1219144210280573</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01836268995519696</v>
+        <v>0.02525370607475214</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1355129863.479197</v>
+        <v>1284006169.856235</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1831715233262915</v>
+        <v>0.1575462758897751</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03701301334757786</v>
+        <v>0.03262761060403897</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2872348800.695442</v>
+        <v>3473575671.229352</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1217275424413335</v>
+        <v>0.1275146938639949</v>
       </c>
       <c r="G88" t="n">
-        <v>0.027890701489481</v>
+        <v>0.03565957416605862</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>53</v>
+      </c>
+      <c r="J88" t="n">
+        <v>409</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2758484413.994807</v>
+        <v>2358787161.560025</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1523119257900033</v>
+        <v>0.1359343194729048</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02908313328980645</v>
+        <v>0.04030017654472214</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1731342638.354849</v>
+        <v>1499234146.515195</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1314578254877448</v>
+        <v>0.1331102651262212</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03499284092742112</v>
+        <v>0.05641258743223854</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2054224601.322105</v>
+        <v>1555329844.396705</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1690479244073573</v>
+        <v>0.1667029700658549</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04145013033654078</v>
+        <v>0.04618594844230828</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2645801162.666604</v>
+        <v>2029236796.476481</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1092934668080788</v>
+        <v>0.1004963801910829</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04390275410159225</v>
+        <v>0.04127162407162893</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4757724654.838109</v>
+        <v>3160308588.219422</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1294774915459231</v>
+        <v>0.09123084983548031</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03802607653997982</v>
+        <v>0.03873764258231061</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>199</v>
+      </c>
+      <c r="J93" t="n">
+        <v>415</v>
+      </c>
+      <c r="K93" t="n">
+        <v>32.45256148418026</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2501413351.401506</v>
+        <v>1893558914.816577</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1217954623684641</v>
+        <v>0.1255176442431434</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04257211533045874</v>
+        <v>0.02881216182134307</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2637467294.983706</v>
+        <v>2790337069.231072</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1305490396713638</v>
+        <v>0.08960792458529547</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03418097494194501</v>
+        <v>0.04950052746766719</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1702715550.394794</v>
+        <v>1899693436.049399</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08762805008110026</v>
+        <v>0.08560146797548072</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04726213660504537</v>
+        <v>0.03686855432590074</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4719480593.423066</v>
+        <v>4249665043.558023</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1247433753589402</v>
+        <v>0.1088422987393894</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0192625392958547</v>
+        <v>0.02353995166594623</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>217</v>
+      </c>
+      <c r="J97" t="n">
+        <v>416</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2777173481.343214</v>
+        <v>3863705191.380917</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1246457483946963</v>
+        <v>0.1062543583109934</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02562617264932111</v>
+        <v>0.0211632450246514</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>107</v>
+      </c>
+      <c r="J98" t="n">
+        <v>416</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2438630695.896915</v>
+        <v>2881898715.056893</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1281005197147731</v>
+        <v>0.09345421939485321</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02780751600797699</v>
+        <v>0.03183793554103909</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3136705926.706307</v>
+        <v>4672697988.030057</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1090209022657349</v>
+        <v>0.1668972084624913</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01953317015267068</v>
+        <v>0.02418370648218593</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>194</v>
+      </c>
+      <c r="J100" t="n">
+        <v>415</v>
+      </c>
+      <c r="K100" t="n">
+        <v>42.22820275227218</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2901638224.128023</v>
+        <v>2997799694.317535</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2031698055998046</v>
+        <v>0.2103880359509809</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05198801669915608</v>
+        <v>0.05398832373911042</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
